--- a/public/product-import-template.xlsx
+++ b/public/product-import-template.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitul\Herd\product-portal\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAC3FA5-55D4-4A6C-901B-CCD7DFFBF3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Generators" sheetId="1" r:id="rId4"/>
-    <sheet name="Switch" sheetId="2" r:id="rId5"/>
-    <sheet name="Docking Stations" sheetId="3" r:id="rId6"/>
-    <sheet name="Other" sheetId="4" r:id="rId7"/>
+    <sheet name="Generators" sheetId="1" r:id="rId1"/>
+    <sheet name="Switch" sheetId="2" r:id="rId2"/>
+    <sheet name="Docking Stations" sheetId="3" r:id="rId3"/>
+    <sheet name="Other" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Hold</t>
   </si>
@@ -185,23 +190,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -234,16 +231,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -533,540 +538,479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:AN5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15.139" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="15.139" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="24.565" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="26.993" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="25.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="15.139" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="39.99" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="21" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="40" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:41">
-      <c r="A5" s="1" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AA5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:AA5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="29.279" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="25.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="26.993" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27">
-      <c r="A5" s="1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:V5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:V5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="19.852" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="26.993" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="26.993" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:L5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/product-import-template.xlsx
+++ b/public/product-import-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitul\Herd\product-portal\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAC3FA5-55D4-4A6C-901B-CCD7DFFBF3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F207A7-7367-4612-BFF7-CCAE51B041C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>Hold</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Circuit Breaker Type</t>
+  </si>
+  <si>
+    <t>Kw</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +590,7 @@
     <col min="41" max="41" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,6 +713,9 @@
       </c>
       <c r="AO1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/public/product-import-template.xlsx
+++ b/public/product-import-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitul\Herd\product-portal\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F207A7-7367-4612-BFF7-CCAE51B041C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C44C953-FB7C-4802-B03D-31CA063DC01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>Hold</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Kw</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
@@ -958,10 +961,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +981,7 @@
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,6 +1017,9 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
